--- a/arima_transform.xlsx
+++ b/arima_transform.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierlim/PycharmProjects/IndianTV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D0CC9E-977F-5E43-81D8-9F69D8FA3E8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298706E7-E642-1249-8D8D-4626E1A5B36E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
